--- a/Files/Vaccine_July 1, 2020.xlsx
+++ b/Files/Vaccine_July 1, 2020.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="292">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">75D30120D07515</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">58160-0812-52</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">$79.15</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">$99.83</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">$35.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">$32.89</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -218,8 +218,7 @@
     <t xml:space="preserve">$104.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -234,8 +233,7 @@
     <t xml:space="preserve">$23.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -247,7 +245,7 @@
     <t xml:space="preserve">$23.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -286,7 +284,7 @@
     <t xml:space="preserve">$10.85</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -301,7 +299,7 @@
     <t xml:space="preserve">$227.931</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -334,7 +332,7 @@
     <t xml:space="preserve">$170.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -361,7 +359,7 @@
     <t xml:space="preserve">$130.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -376,7 +374,7 @@
     <t xml:space="preserve">$78.678</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -391,8 +389,7 @@
     <t xml:space="preserve">$224.937</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13TM</t>
@@ -422,7 +419,7 @@
     <t xml:space="preserve">$105.194</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -449,7 +446,7 @@
     <t xml:space="preserve">$84.531</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -464,7 +461,7 @@
     <t xml:space="preserve">$120.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -500,7 +497,7 @@
     <t xml:space="preserve">75D30120D07517</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -536,7 +533,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -551,7 +548,7 @@
     <t xml:space="preserve">$135.725</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -581,13 +578,13 @@
     <t xml:space="preserve">75D30120D08572</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$62.035</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">Heplisav-B</t>
@@ -608,9 +605,6 @@
     <t xml:space="preserve">75D30120D08571</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax HB</t>
-  </si>
-  <si>
     <t xml:space="preserve">00006-4995-41</t>
   </si>
   <si>
@@ -638,13 +632,13 @@
     <t xml:space="preserve">$36.643</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$140.587</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella </t>
   </si>
   <si>
     <t xml:space="preserve">$48.861</t>
@@ -671,8 +665,7 @@
     <t xml:space="preserve">$106.888</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 13-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -729,12 +722,10 @@
     <t xml:space="preserve">$103.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0633-15</t>
@@ -761,8 +752,7 @@
     <t xml:space="preserve">49281-0420-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0885-52</t>
@@ -780,15 +770,13 @@
     <t xml:space="preserve">75D30120D07111</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0816-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flucelvax Quadrivalent</t>
@@ -818,8 +806,7 @@
     <t xml:space="preserve">$24.419</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 -35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6 -35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria Quadrivalent</t>
@@ -834,8 +821,7 @@
     <t xml:space="preserve">$18.659</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0320-01</t>
@@ -850,12 +836,10 @@
     <t xml:space="preserve">$17.257</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0307-10</t>
@@ -895,10 +879,6 @@
   </si>
   <si>
     <t xml:space="preserve">$14.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">$12.48</t>
@@ -2311,19 +2291,19 @@
         <v>189</v>
       </c>
       <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" t="s">
-        <v>197</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" t="s">
         <v>198</v>
-      </c>
-      <c r="F7" t="s">
-        <v>199</v>
       </c>
       <c r="G7" s="1">
         <v>44377</v>
@@ -2340,19 +2320,19 @@
         <v>189</v>
       </c>
       <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
         <v>200</v>
-      </c>
-      <c r="C8" t="s">
-        <v>201</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" t="s">
         <v>202</v>
-      </c>
-      <c r="F8" t="s">
-        <v>203</v>
       </c>
       <c r="G8" s="1">
         <v>44377</v>
@@ -2369,19 +2349,19 @@
         <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G9" s="1">
         <v>44377</v>
@@ -2395,7 +2375,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
@@ -2407,7 +2387,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
@@ -2424,7 +2404,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
@@ -2436,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -2465,7 +2445,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
         <v>113</v>
@@ -2494,7 +2474,7 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
         <v>109</v>
@@ -2503,10 +2483,10 @@
         <v>44377</v>
       </c>
       <c r="H13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s">
         <v>212</v>
-      </c>
-      <c r="I13" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14">
@@ -2523,7 +2503,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -2535,7 +2515,7 @@
         <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15">
@@ -2552,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
         <v>104</v>
@@ -2569,10 +2549,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
         <v>217</v>
-      </c>
-      <c r="B16" t="s">
-        <v>218</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
@@ -2581,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" t="s">
         <v>128</v>
@@ -2593,7 +2573,7 @@
         <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
@@ -2610,7 +2590,7 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
         <v>133</v>
@@ -2639,7 +2619,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
         <v>157</v>
@@ -2651,7 +2631,7 @@
         <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
@@ -2668,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
         <v>169</v>
@@ -2677,10 +2657,10 @@
         <v>44377</v>
       </c>
       <c r="H19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" t="s">
         <v>212</v>
-      </c>
-      <c r="I19" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20">
@@ -2697,7 +2677,7 @@
         <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
         <v>169</v>
@@ -2706,10 +2686,10 @@
         <v>44377</v>
       </c>
       <c r="H20" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" t="s">
         <v>212</v>
-      </c>
-      <c r="I20" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -2726,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -2755,7 +2735,7 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
         <v>164</v>
@@ -2784,7 +2764,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" t="s">
         <v>176</v>
@@ -2801,22 +2781,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
         <v>228</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>229</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>230</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>231</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>232</v>
-      </c>
-      <c r="F24" t="s">
-        <v>233</v>
       </c>
       <c r="G24" s="1">
         <v>44377</v>
@@ -2830,22 +2810,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" t="s">
         <v>228</v>
       </c>
-      <c r="B25" t="s">
-        <v>229</v>
-      </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G25" s="1">
         <v>44377</v>
@@ -2904,22 +2884,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
         <v>236</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" t="s">
-        <v>238</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" t="s">
         <v>239</v>
-      </c>
-      <c r="F2" t="s">
-        <v>240</v>
       </c>
       <c r="G2" s="1">
         <v>44255</v>
@@ -2928,27 +2908,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" t="s">
         <v>243</v>
-      </c>
-      <c r="F3" t="s">
-        <v>244</v>
       </c>
       <c r="G3" s="1">
         <v>44255</v>
@@ -2957,27 +2937,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
         <v>236</v>
       </c>
-      <c r="B4" t="s">
-        <v>237</v>
-      </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
         <v>243</v>
-      </c>
-      <c r="F4" t="s">
-        <v>244</v>
       </c>
       <c r="G4" s="1">
         <v>44255</v>
@@ -2986,27 +2966,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>247</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>248</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>249</v>
-      </c>
-      <c r="F5" t="s">
-        <v>250</v>
       </c>
       <c r="G5" s="1">
         <v>44255</v>
@@ -3015,27 +2995,27 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
         <v>252</v>
-      </c>
-      <c r="C6" t="s">
-        <v>253</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
         <v>249</v>
-      </c>
-      <c r="F6" t="s">
-        <v>250</v>
       </c>
       <c r="G6" s="1">
         <v>44255</v>
@@ -3044,181 +3024,181 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>255</v>
-      </c>
-      <c r="C7" t="s">
-        <v>256</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" t="s">
         <v>257</v>
-      </c>
-      <c r="F7" t="s">
-        <v>258</v>
       </c>
       <c r="G7" s="1">
         <v>44255</v>
       </c>
       <c r="H7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" t="s">
         <v>259</v>
-      </c>
-      <c r="I7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
         <v>254</v>
       </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" t="s">
         <v>262</v>
-      </c>
-      <c r="F8" t="s">
-        <v>263</v>
       </c>
       <c r="G8" s="1">
         <v>44255</v>
       </c>
       <c r="H8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" t="s">
         <v>259</v>
-      </c>
-      <c r="I8" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
         <v>264</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>265</v>
-      </c>
-      <c r="C9" t="s">
-        <v>266</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" t="s">
         <v>267</v>
-      </c>
-      <c r="F9" t="s">
-        <v>268</v>
       </c>
       <c r="G9" s="1">
         <v>44255</v>
       </c>
       <c r="H9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" t="s">
         <v>259</v>
-      </c>
-      <c r="I9" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" t="s">
         <v>269</v>
-      </c>
-      <c r="B10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" t="s">
-        <v>270</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" t="s">
-        <v>268</v>
       </c>
       <c r="G10" s="1">
         <v>44255</v>
       </c>
       <c r="H10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" t="s">
         <v>259</v>
-      </c>
-      <c r="I10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" t="s">
         <v>272</v>
-      </c>
-      <c r="F11" t="s">
-        <v>273</v>
       </c>
       <c r="G11" s="1">
         <v>44255</v>
       </c>
       <c r="H11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" t="s">
         <v>259</v>
-      </c>
-      <c r="I11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
         <v>274</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>275</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>276</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>277</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>278</v>
-      </c>
-      <c r="F12" t="s">
-        <v>279</v>
       </c>
       <c r="G12" s="1">
         <v>44255</v>
       </c>
       <c r="H12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" t="s">
         <v>280</v>
-      </c>
-      <c r="I12" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3268,22 +3248,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
         <v>236</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" t="s">
-        <v>238</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="1">
         <v>44255</v>
@@ -3292,27 +3272,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G3" s="1">
         <v>44255</v>
@@ -3321,27 +3301,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
         <v>236</v>
       </c>
-      <c r="B4" t="s">
-        <v>237</v>
-      </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G4" s="1">
         <v>44255</v>
@@ -3350,27 +3330,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>247</v>
       </c>
-      <c r="D5" t="s">
-        <v>248</v>
-      </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="1">
         <v>44255</v>
@@ -3379,27 +3359,27 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
         <v>252</v>
       </c>
-      <c r="C6" t="s">
-        <v>253</v>
-      </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="1">
         <v>44255</v>
@@ -3408,152 +3388,152 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>255</v>
-      </c>
-      <c r="C7" t="s">
-        <v>256</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" s="1">
         <v>44255</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
         <v>254</v>
       </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="1">
         <v>44255</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" t="s">
         <v>269</v>
-      </c>
-      <c r="B9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" t="s">
-        <v>270</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="1">
         <v>44255</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G10" s="1">
         <v>44255</v>
       </c>
       <c r="H10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" t="s">
         <v>274</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>275</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>276</v>
       </c>
-      <c r="D11" t="s">
-        <v>277</v>
-      </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G11" s="1">
         <v>44255</v>
       </c>
       <c r="H11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
